--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="109">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -463,6 +463,203 @@
 		"code": "NFR",
 		"value": "Non-étranger"
 	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "101",
+		"value": "أ",
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "102",
+		"value": "أ +",
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "103",
+		"value": "أ-",
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "104",
+		"value": "ب",
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "105",
+		"value": "ب +",
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "106",
+		"value": "ب-",
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "110",
+		"value": "ا",
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "112",
+		"value": "س-"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "113",
+		"value": "لا اعرف"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "114",
+		"value": "غير قابل للتطبيق"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "101",
+		"value": "غير مرتبطة
+"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "102",
+		"value": "زوجت"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "103",
+		"value": "الأرامل"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "104",
+		"value": "مطلق"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "105",
+		"value": "مطلق من الناحية القانونية
+"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "106",
+		"value": "ملغاة"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "107",
+		"value": "مبطل"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "Document-based",
+		"value": "مستند إلى المستند"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "Introducer-based",
+		"value": "المعرف القائم"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "101",
+		"value": "يلتقط"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "102",
+		"value": "التسليم إلى العنوان الدائم"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "103",
+		"value": "التسليم إلى العنوان الحالي"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "MLE",
+		"value": "ذكر"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "FLE",
+		"value": "أنثى"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "OTH",
+		"value": "آحرون"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "FR",
+		"value": "أجنبي"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "NFR",
+		"value": "غير أجنبي"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"value":"عربى","code":"ara"}</t>
   </si>
 </sst>
 </file>
@@ -591,15 +788,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G65" activeCellId="0" sqref="G65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E79" activeCellId="0" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.6"/>
@@ -654,7 +851,8 @@
       <c r="F2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="b">
+      <c r="G2" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H2" s="0" t="s">
@@ -683,7 +881,8 @@
       <c r="F3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="b">
+      <c r="G3" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H3" s="0" t="s">
@@ -712,7 +911,8 @@
       <c r="F4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="b">
+      <c r="G4" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H4" s="0" t="s">
@@ -741,7 +941,8 @@
       <c r="F5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="3" t="b">
+      <c r="G5" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H5" s="0" t="s">
@@ -770,7 +971,8 @@
       <c r="F6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="3" t="b">
+      <c r="G6" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H6" s="0" t="s">
@@ -799,7 +1001,8 @@
       <c r="F7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="3" t="b">
+      <c r="G7" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H7" s="0" t="s">
@@ -828,7 +1031,8 @@
       <c r="F8" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="3" t="b">
+      <c r="G8" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H8" s="0" t="s">
@@ -857,7 +1061,8 @@
       <c r="F9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="3" t="b">
+      <c r="G9" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H9" s="0" t="s">
@@ -886,7 +1091,8 @@
       <c r="F10" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="3" t="b">
+      <c r="G10" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
@@ -915,7 +1121,8 @@
       <c r="F11" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="3" t="b">
+      <c r="G11" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H11" s="0" t="s">
@@ -944,7 +1151,8 @@
       <c r="F12" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="3" t="b">
+      <c r="G12" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H12" s="0" t="s">
@@ -973,7 +1181,8 @@
       <c r="F13" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="3" t="b">
+      <c r="G13" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H13" s="0" t="s">
@@ -1002,7 +1211,8 @@
       <c r="F14" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="3" t="b">
+      <c r="G14" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H14" s="0" t="s">
@@ -1031,7 +1241,8 @@
       <c r="F15" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="3" t="b">
+      <c r="G15" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H15" s="0" t="s">
@@ -1060,7 +1271,8 @@
       <c r="F16" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="3" t="b">
+      <c r="G16" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H16" s="0" t="s">
@@ -1089,7 +1301,8 @@
       <c r="F17" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="3" t="b">
+      <c r="G17" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H17" s="0" t="s">
@@ -1118,7 +1331,8 @@
       <c r="F18" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="3" t="b">
+      <c r="G18" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H18" s="0" t="s">
@@ -1147,7 +1361,8 @@
       <c r="F19" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="3" t="b">
+      <c r="G19" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H19" s="0" t="s">
@@ -1176,7 +1391,8 @@
       <c r="F20" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="3" t="b">
+      <c r="G20" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H20" s="0" t="s">
@@ -1205,7 +1421,8 @@
       <c r="F21" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="3" t="b">
+      <c r="G21" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H21" s="0" t="s">
@@ -1234,7 +1451,8 @@
       <c r="F22" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="3" t="b">
+      <c r="G22" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H22" s="0" t="s">
@@ -1263,7 +1481,8 @@
       <c r="F23" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="3" t="b">
+      <c r="G23" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H23" s="0" t="s">
@@ -1292,7 +1511,8 @@
       <c r="F24" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="3" t="b">
+      <c r="G24" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H24" s="0" t="s">
@@ -1321,7 +1541,8 @@
       <c r="F25" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="3" t="b">
+      <c r="G25" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H25" s="0" t="s">
@@ -1350,7 +1571,8 @@
       <c r="F26" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="3" t="b">
+      <c r="G26" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H26" s="0" t="s">
@@ -1379,7 +1601,8 @@
       <c r="F27" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="3" t="b">
+      <c r="G27" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H27" s="0" t="s">
@@ -1408,7 +1631,8 @@
       <c r="F28" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="3" t="b">
+      <c r="G28" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H28" s="0" t="s">
@@ -1437,7 +1661,8 @@
       <c r="F29" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="3" t="b">
+      <c r="G29" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H29" s="0" t="s">
@@ -1466,7 +1691,8 @@
       <c r="F30" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="3" t="b">
+      <c r="G30" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H30" s="0" t="s">
@@ -1495,7 +1721,8 @@
       <c r="F31" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="3" t="b">
+      <c r="G31" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H31" s="0" t="s">
@@ -1524,7 +1751,8 @@
       <c r="F32" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="3" t="b">
+      <c r="G32" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H32" s="0" t="s">
@@ -1553,7 +1781,8 @@
       <c r="F33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="3" t="b">
+      <c r="G33" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
@@ -1582,7 +1811,8 @@
       <c r="F34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="3" t="b">
+      <c r="G34" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H34" s="2" t="s">
@@ -1611,7 +1841,8 @@
       <c r="F35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G35" s="3" t="b">
+      <c r="G35" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H35" s="2" t="s">
@@ -1640,7 +1871,8 @@
       <c r="F36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="3" t="b">
+      <c r="G36" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H36" s="2" t="s">
@@ -1669,7 +1901,8 @@
       <c r="F37" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="3" t="b">
+      <c r="G37" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H37" s="0" t="s">
@@ -1698,7 +1931,8 @@
       <c r="F38" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G38" s="3" t="b">
+      <c r="G38" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H38" s="0" t="s">
@@ -1727,7 +1961,8 @@
       <c r="F39" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G39" s="3" t="b">
+      <c r="G39" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H39" s="0" t="s">
@@ -1756,7 +1991,8 @@
       <c r="F40" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="3" t="b">
+      <c r="G40" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H40" s="0" t="s">
@@ -1785,7 +2021,8 @@
       <c r="F41" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="3" t="b">
+      <c r="G41" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H41" s="0" t="s">
@@ -1814,7 +2051,8 @@
       <c r="F42" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="3" t="b">
+      <c r="G42" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H42" s="0" t="s">
@@ -1843,7 +2081,8 @@
       <c r="F43" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G43" s="3" t="b">
+      <c r="G43" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H43" s="0" t="s">
@@ -1872,7 +2111,8 @@
       <c r="F44" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G44" s="3" t="b">
+      <c r="G44" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H44" s="0" t="s">
@@ -1901,7 +2141,8 @@
       <c r="F45" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G45" s="3" t="b">
+      <c r="G45" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H45" s="0" t="s">
@@ -1930,7 +2171,8 @@
       <c r="F46" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G46" s="3" t="b">
+      <c r="G46" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H46" s="0" t="s">
@@ -1959,7 +2201,8 @@
       <c r="F47" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G47" s="3" t="b">
+      <c r="G47" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H47" s="0" t="s">
@@ -1988,7 +2231,8 @@
       <c r="F48" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G48" s="3" t="b">
+      <c r="G48" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H48" s="0" t="s">
@@ -2017,7 +2261,8 @@
       <c r="F49" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G49" s="3" t="b">
+      <c r="G49" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H49" s="0" t="s">
@@ -2046,7 +2291,8 @@
       <c r="F50" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G50" s="3" t="b">
+      <c r="G50" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H50" s="0" t="s">
@@ -2075,7 +2321,8 @@
       <c r="F51" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G51" s="3" t="b">
+      <c r="G51" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H51" s="0" t="s">
@@ -2104,7 +2351,8 @@
       <c r="F52" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G52" s="3" t="b">
+      <c r="G52" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H52" s="0" t="s">
@@ -2133,7 +2381,8 @@
       <c r="F53" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G53" s="3" t="b">
+      <c r="G53" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H53" s="0" t="s">
@@ -2162,7 +2411,8 @@
       <c r="F54" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G54" s="3" t="b">
+      <c r="G54" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H54" s="0" t="s">
@@ -2191,7 +2441,8 @@
       <c r="F55" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G55" s="3" t="b">
+      <c r="G55" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H55" s="0" t="s">
@@ -2220,7 +2471,8 @@
       <c r="F56" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G56" s="3" t="b">
+      <c r="G56" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H56" s="0" t="s">
@@ -2249,7 +2501,8 @@
       <c r="F57" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G57" s="3" t="b">
+      <c r="G57" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H57" s="0" t="s">
@@ -2278,7 +2531,8 @@
       <c r="F58" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G58" s="3" t="b">
+      <c r="G58" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H58" s="0" t="s">
@@ -2307,7 +2561,8 @@
       <c r="F59" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G59" s="3" t="b">
+      <c r="G59" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H59" s="0" t="s">
@@ -2336,7 +2591,8 @@
       <c r="F60" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G60" s="3" t="b">
+      <c r="G60" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H60" s="0" t="s">
@@ -2365,7 +2621,8 @@
       <c r="F61" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G61" s="3" t="b">
+      <c r="G61" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H61" s="0" t="s">
@@ -2394,7 +2651,8 @@
       <c r="F62" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G62" s="3" t="b">
+      <c r="G62" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H62" s="0" t="s">
@@ -2423,7 +2681,8 @@
       <c r="F63" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G63" s="3" t="b">
+      <c r="G63" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H63" s="0" t="s">
@@ -2452,7 +2711,8 @@
       <c r="F64" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G64" s="3" t="b">
+      <c r="G64" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H64" s="0" t="s">
@@ -2481,7 +2741,8 @@
       <c r="F65" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G65" s="3" t="b">
+      <c r="G65" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H65" s="0" t="s">
@@ -2510,7 +2771,8 @@
       <c r="F66" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G66" s="3" t="b">
+      <c r="G66" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H66" s="0" t="s">
@@ -2539,13 +2801,974 @@
       <c r="F67" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G67" s="3" t="b">
+      <c r="G67" s="3" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>14</v>
       </c>
       <c r="I67" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>10094</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G68" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>10095</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G69" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>10096</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G70" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>10097</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G71" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>10098</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G72" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>10099</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G73" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>10100</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G74" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>10101</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G75" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>10102</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G76" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>10103</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G77" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>10104</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G78" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>10105</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G79" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>10106</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G80" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>10107</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G81" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>10108</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G82" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>10109</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G83" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>10110</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G84" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>10111</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G85" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>10112</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G86" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>10113</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G87" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>10114</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G88" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>10115</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G89" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H89" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>10116</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G90" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>10117</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G91" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H91" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>10118</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G92" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H92" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>10119</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G93" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H93" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>10120</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G94" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H94" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>10121</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G95" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H95" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>10122</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G96" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H96" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>10123</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G97" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H97" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>10124</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G98" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H98" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>10125</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G99" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2553,7 +3776,7 @@
   <autoFilter ref="A1:I67"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="80">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -463,203 +463,6 @@
 		"code": "NFR",
 		"value": "Non-étranger"
 	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "101",
-		"value": "أ",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "102",
-		"value": "أ +",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "103",
-		"value": "أ-",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "104",
-		"value": "ب",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "105",
-		"value": "ب +",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "106",
-		"value": "ب-",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "110",
-		"value": "ا",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "112",
-		"value": "س-"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "113",
-		"value": "لا اعرف"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "114",
-		"value": "غير قابل للتطبيق"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "101",
-		"value": "غير مرتبطة
-"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "102",
-		"value": "زوجت"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "103",
-		"value": "الأرامل"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "104",
-		"value": "مطلق"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "105",
-		"value": "مطلق من الناحية القانونية
-"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "106",
-		"value": "ملغاة"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "107",
-		"value": "مبطل"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "Document-based",
-		"value": "مستند إلى المستند"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "Introducer-based",
-		"value": "المعرف القائم"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "101",
-		"value": "يلتقط"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "102",
-		"value": "التسليم إلى العنوان الدائم"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "103",
-		"value": "التسليم إلى العنوان الحالي"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "MLE",
-		"value": "ذكر"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "FLE",
-		"value": "أنثى"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "OTH",
-		"value": "آحرون"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "FR",
-		"value": "أجنبي"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "NFR",
-		"value": "غير أجنبي"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"value":"عربى","code":"ara"}</t>
   </si>
 </sst>
 </file>
@@ -788,15 +591,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E79" activeCellId="0" sqref="E79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G65" activeCellId="0" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.6"/>
@@ -851,8 +654,7 @@
       <c r="F2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G2" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H2" s="0" t="s">
@@ -881,8 +683,7 @@
       <c r="F3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G3" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H3" s="0" t="s">
@@ -911,8 +712,7 @@
       <c r="F4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G4" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="0" t="s">
@@ -941,8 +741,7 @@
       <c r="F5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H5" s="0" t="s">
@@ -971,8 +770,7 @@
       <c r="F6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H6" s="0" t="s">
@@ -1001,8 +799,7 @@
       <c r="F7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G7" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H7" s="0" t="s">
@@ -1031,8 +828,7 @@
       <c r="F8" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G8" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H8" s="0" t="s">
@@ -1061,8 +857,7 @@
       <c r="F9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G9" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H9" s="0" t="s">
@@ -1091,8 +886,7 @@
       <c r="F10" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G10" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
@@ -1121,8 +915,7 @@
       <c r="F11" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G11" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H11" s="0" t="s">
@@ -1151,8 +944,7 @@
       <c r="F12" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G12" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H12" s="0" t="s">
@@ -1181,8 +973,7 @@
       <c r="F13" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G13" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H13" s="0" t="s">
@@ -1211,8 +1002,7 @@
       <c r="F14" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G14" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H14" s="0" t="s">
@@ -1241,8 +1031,7 @@
       <c r="F15" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G15" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H15" s="0" t="s">
@@ -1271,8 +1060,7 @@
       <c r="F16" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G16" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H16" s="0" t="s">
@@ -1301,8 +1089,7 @@
       <c r="F17" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G17" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H17" s="0" t="s">
@@ -1331,8 +1118,7 @@
       <c r="F18" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G18" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H18" s="0" t="s">
@@ -1361,8 +1147,7 @@
       <c r="F19" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G19" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H19" s="0" t="s">
@@ -1391,8 +1176,7 @@
       <c r="F20" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G20" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H20" s="0" t="s">
@@ -1421,8 +1205,7 @@
       <c r="F21" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G21" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H21" s="0" t="s">
@@ -1451,8 +1234,7 @@
       <c r="F22" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G22" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H22" s="0" t="s">
@@ -1481,8 +1263,7 @@
       <c r="F23" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G23" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H23" s="0" t="s">
@@ -1511,8 +1292,7 @@
       <c r="F24" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G24" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H24" s="0" t="s">
@@ -1541,8 +1321,7 @@
       <c r="F25" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G25" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H25" s="0" t="s">
@@ -1571,8 +1350,7 @@
       <c r="F26" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G26" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H26" s="0" t="s">
@@ -1601,8 +1379,7 @@
       <c r="F27" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G27" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H27" s="0" t="s">
@@ -1631,8 +1408,7 @@
       <c r="F28" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G28" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H28" s="0" t="s">
@@ -1661,8 +1437,7 @@
       <c r="F29" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G29" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H29" s="0" t="s">
@@ -1691,8 +1466,7 @@
       <c r="F30" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G30" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H30" s="0" t="s">
@@ -1721,8 +1495,7 @@
       <c r="F31" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G31" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H31" s="0" t="s">
@@ -1751,8 +1524,7 @@
       <c r="F32" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G32" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H32" s="0" t="s">
@@ -1781,8 +1553,7 @@
       <c r="F33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G33" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
@@ -1811,8 +1582,7 @@
       <c r="F34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G34" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H34" s="2" t="s">
@@ -1841,8 +1611,7 @@
       <c r="F35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G35" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G35" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H35" s="2" t="s">
@@ -1871,8 +1640,7 @@
       <c r="F36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G36" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H36" s="2" t="s">
@@ -1901,8 +1669,7 @@
       <c r="F37" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G37" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H37" s="0" t="s">
@@ -1931,8 +1698,7 @@
       <c r="F38" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G38" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G38" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H38" s="0" t="s">
@@ -1961,8 +1727,7 @@
       <c r="F39" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G39" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G39" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H39" s="0" t="s">
@@ -1991,8 +1756,7 @@
       <c r="F40" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G40" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H40" s="0" t="s">
@@ -2021,8 +1785,7 @@
       <c r="F41" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G41" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H41" s="0" t="s">
@@ -2051,8 +1814,7 @@
       <c r="F42" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G42" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H42" s="0" t="s">
@@ -2081,8 +1843,7 @@
       <c r="F43" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G43" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G43" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H43" s="0" t="s">
@@ -2111,8 +1872,7 @@
       <c r="F44" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G44" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G44" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H44" s="0" t="s">
@@ -2141,8 +1901,7 @@
       <c r="F45" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G45" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G45" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H45" s="0" t="s">
@@ -2171,8 +1930,7 @@
       <c r="F46" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G46" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G46" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H46" s="0" t="s">
@@ -2201,8 +1959,7 @@
       <c r="F47" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G47" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G47" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H47" s="0" t="s">
@@ -2231,8 +1988,7 @@
       <c r="F48" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G48" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G48" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H48" s="0" t="s">
@@ -2261,8 +2017,7 @@
       <c r="F49" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G49" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G49" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H49" s="0" t="s">
@@ -2291,8 +2046,7 @@
       <c r="F50" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G50" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G50" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H50" s="0" t="s">
@@ -2321,8 +2075,7 @@
       <c r="F51" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G51" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G51" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H51" s="0" t="s">
@@ -2351,8 +2104,7 @@
       <c r="F52" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G52" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G52" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H52" s="0" t="s">
@@ -2381,8 +2133,7 @@
       <c r="F53" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G53" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G53" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H53" s="0" t="s">
@@ -2411,8 +2162,7 @@
       <c r="F54" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G54" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G54" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H54" s="0" t="s">
@@ -2441,8 +2191,7 @@
       <c r="F55" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G55" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G55" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H55" s="0" t="s">
@@ -2471,8 +2220,7 @@
       <c r="F56" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G56" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G56" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H56" s="0" t="s">
@@ -2501,8 +2249,7 @@
       <c r="F57" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G57" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G57" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H57" s="0" t="s">
@@ -2531,8 +2278,7 @@
       <c r="F58" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G58" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G58" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H58" s="0" t="s">
@@ -2561,8 +2307,7 @@
       <c r="F59" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G59" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G59" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H59" s="0" t="s">
@@ -2591,8 +2336,7 @@
       <c r="F60" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G60" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G60" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H60" s="0" t="s">
@@ -2621,8 +2365,7 @@
       <c r="F61" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G61" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G61" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H61" s="0" t="s">
@@ -2651,8 +2394,7 @@
       <c r="F62" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G62" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G62" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H62" s="0" t="s">
@@ -2681,8 +2423,7 @@
       <c r="F63" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G63" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G63" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H63" s="0" t="s">
@@ -2711,8 +2452,7 @@
       <c r="F64" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G64" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G64" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H64" s="0" t="s">
@@ -2741,8 +2481,7 @@
       <c r="F65" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G65" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G65" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H65" s="0" t="s">
@@ -2771,8 +2510,7 @@
       <c r="F66" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G66" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G66" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H66" s="0" t="s">
@@ -2801,974 +2539,13 @@
       <c r="F67" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G67" s="3" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G67" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>14</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
-        <v>10094</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G68" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H68" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I68" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
-        <v>10095</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G69" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H69" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I69" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
-        <v>10096</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F70" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G70" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H70" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I70" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
-        <v>10097</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F71" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G71" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I71" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
-        <v>10098</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G72" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H72" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
-        <v>10099</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F73" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G73" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H73" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I73" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
-        <v>10100</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G74" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
-        <v>10101</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G75" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I75" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
-        <v>10102</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G76" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H76" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I76" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
-        <v>10103</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G77" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
-        <v>10104</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G78" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H78" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I78" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
-        <v>10105</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G79" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H79" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I79" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
-        <v>10106</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G80" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I80" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
-        <v>10107</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F81" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G81" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H81" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I81" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
-        <v>10108</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F82" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G82" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H82" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
-        <v>10109</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F83" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G83" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H83" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I83" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
-        <v>10110</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G84" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H84" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I84" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
-        <v>10111</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F85" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G85" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H85" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I85" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
-        <v>10112</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F86" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G86" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H86" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I86" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
-        <v>10113</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F87" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G87" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H87" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I87" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
-        <v>10114</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F88" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G88" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H88" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I88" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
-        <v>10115</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F89" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G89" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H89" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I89" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
-        <v>10116</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F90" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G90" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H90" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I90" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
-        <v>10117</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F91" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G91" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H91" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I91" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
-        <v>10118</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F92" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G92" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H92" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I92" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
-        <v>10119</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F93" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G93" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H93" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I93" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
-        <v>10120</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F94" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G94" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H94" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I94" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
-        <v>10121</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F95" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G95" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H95" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I95" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
-        <v>10122</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F96" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G96" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H96" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I96" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
-        <v>10123</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F97" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G97" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H97" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I97" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
-        <v>10124</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F98" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G98" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H98" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I98" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
-        <v>10125</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G99" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I99" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3776,7 +2553,7 @@
   <autoFilter ref="A1:I67"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop_Branch_all\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh.Binayak\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$103</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="110">
   <si>
     <t>id</t>
   </si>
@@ -664,6 +664,9 @@
   </si>
   <si>
     <t>{"value":"عربى","code":"ara"}</t>
+  </si>
+  <si>
+    <t>{"value":"عربي","code":"ara"}</t>
   </si>
 </sst>
 </file>
@@ -1012,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99:B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4000,8 +4003,116 @@
         <v>15</v>
       </c>
     </row>
+    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>10126</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" s="3" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>10127</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G101" s="3" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>10128</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G102" s="3" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>10129</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G103" s="3" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I99"/>
+  <autoFilter ref="A1:I103"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
